--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="963">
   <si>
     <t>anchor score</t>
   </si>
@@ -292,613 +292,613 @@
     <t>fight</t>
   </si>
   <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>canadians</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sudden</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>lost</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>severe</t>
+    <t>love</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>canadians</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>sudden</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>lost</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>rather</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>looking</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>better</t>
@@ -3268,10 +3268,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5">
         <v>0.889763779527559</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K6">
         <v>0.8297872340425532</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>0.8125</v>
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>0.8076923076923077</v>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10">
         <v>0.7931034482758621</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K11">
         <v>0.7771883289124668</v>
@@ -3800,28 +3800,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>0.7554585152838428</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3850,28 +3850,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3900,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K14">
         <v>0.6784452296819788</v>
@@ -3950,28 +3950,28 @@
         <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="K15">
-        <v>0.6728395061728395</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4003,13 +4003,13 @@
         <v>294</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4050,7 +4050,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K17">
         <v>0.631578947368421</v>
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K18">
         <v>0.6268656716417911</v>
@@ -4150,7 +4150,7 @@
         <v>58</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K19">
         <v>0.611764705882353</v>
@@ -4250,7 +4250,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K21">
         <v>0.5</v>
@@ -4300,7 +4300,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K22">
         <v>0.4736842105263158</v>
@@ -4400,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K24">
         <v>0.4658385093167702</v>
@@ -4500,7 +4500,7 @@
         <v>9</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K26">
         <v>0.4579207920792079</v>
@@ -4550,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K27">
         <v>0.4545454545454545</v>
@@ -4600,7 +4600,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K28">
         <v>0.4493670886075949</v>
@@ -4700,7 +4700,7 @@
         <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K30">
         <v>0.4375</v>
@@ -4750,7 +4750,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K31">
         <v>0.4315789473684211</v>
@@ -4900,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K34">
         <v>0.425531914893617</v>
@@ -5050,7 +5050,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K37">
         <v>0.4090909090909091</v>
@@ -5350,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K43">
         <v>0.3787878787878788</v>
@@ -5400,7 +5400,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K44">
         <v>0.3761904761904762</v>
@@ -5450,7 +5450,7 @@
         <v>11</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K45">
         <v>0.375</v>
@@ -5700,7 +5700,7 @@
         <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K50">
         <v>0.360655737704918</v>
@@ -5800,7 +5800,7 @@
         <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K52">
         <v>0.3529411764705883</v>
@@ -5850,7 +5850,7 @@
         <v>9</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K53">
         <v>0.35</v>
@@ -5900,7 +5900,7 @@
         <v>33</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K54">
         <v>0.3439490445859872</v>
@@ -5950,7 +5950,7 @@
         <v>6</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K55">
         <v>0.3428571428571429</v>
@@ -6450,7 +6450,7 @@
         <v>19</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K65">
         <v>0.3313609467455622</v>
@@ -6700,7 +6700,7 @@
         <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K70">
         <v>0.32</v>
@@ -6850,7 +6850,7 @@
         <v>22</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K73">
         <v>0.3156108597285068</v>
@@ -6950,7 +6950,7 @@
         <v>28</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K75">
         <v>0.3119266055045872</v>
@@ -7000,7 +7000,7 @@
         <v>33</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K76">
         <v>0.3118279569892473</v>
@@ -7250,7 +7250,7 @@
         <v>45</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K81">
         <v>0.3046875</v>
@@ -7300,7 +7300,7 @@
         <v>10</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K82">
         <v>0.3</v>
@@ -7529,28 +7529,28 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1515151515151515</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K87">
         <v>0.2903225806451613</v>
@@ -7650,7 +7650,7 @@
         <v>6</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K89">
         <v>0.2890888638920135</v>
@@ -7700,7 +7700,7 @@
         <v>6</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K90">
         <v>0.2876712328767123</v>
@@ -7729,13 +7729,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1428571428571428</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -7747,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>338</v>
@@ -7779,25 +7779,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1311475409836066</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>234</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>339</v>
@@ -7829,13 +7829,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>340</v>
@@ -7879,13 +7879,13 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1282051282051282</v>
+        <v>0.125</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>341</v>
@@ -7950,7 +7950,7 @@
         <v>7</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K95">
         <v>0.2857142857142857</v>
@@ -7985,16 +7985,16 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
         <v>7</v>
@@ -8029,25 +8029,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>343</v>
@@ -8079,28 +8079,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="E98">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F98">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K98">
         <v>0.282051282051282</v>
@@ -8129,28 +8129,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1176470588235294</v>
+        <v>0.116504854368932</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D99">
-        <v>130</v>
+        <v>204</v>
       </c>
       <c r="E99">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F99">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K99">
         <v>0.2816901408450704</v>
@@ -8179,28 +8179,28 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="E100">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K100">
         <v>0.2803030303030303</v>
@@ -8229,28 +8229,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.116504854368932</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C101">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K101">
         <v>0.2777777777777778</v>
@@ -8300,7 +8300,7 @@
         <v>8</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K102">
         <v>0.2751091703056768</v>
@@ -8335,22 +8335,22 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>8</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K103">
         <v>0.2740619902120718</v>
@@ -8382,10 +8382,10 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>344</v>
@@ -8429,25 +8429,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1111111111111111</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E105">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>345</v>
@@ -8479,28 +8479,28 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K106">
         <v>0.2666666666666667</v>
@@ -8529,25 +8529,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1081081081081081</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>346</v>
@@ -8579,25 +8579,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1071428571428571</v>
+        <v>0.1</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>347</v>
@@ -8629,13 +8629,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -8647,10 +8647,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K109">
         <v>0.260910815939279</v>
@@ -8682,10 +8682,10 @@
         <v>0.1</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8697,10 +8697,10 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K110">
         <v>0.2592592592592592</v>
@@ -8779,13 +8779,13 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>349</v>
@@ -8829,7 +8829,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K113">
         <v>0.2515527950310559</v>
@@ -8950,7 +8950,7 @@
         <v>10</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K115">
         <v>0.25</v>
@@ -8982,22 +8982,22 @@
         <v>0.09090909090909091</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.29</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>351</v>
@@ -9029,7 +9029,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>352</v>
@@ -9079,25 +9079,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>353</v>
@@ -9135,16 +9135,16 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
         <v>11</v>
@@ -9229,25 +9229,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>356</v>
@@ -9279,13 +9279,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>357</v>
@@ -9332,22 +9332,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H123">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>358</v>
@@ -9379,13 +9379,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>359</v>
@@ -9429,25 +9429,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F125">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>360</v>
@@ -9579,13 +9579,13 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>363</v>
@@ -9629,25 +9629,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E129">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F129">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>364</v>
@@ -9682,22 +9682,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130">
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>365</v>
@@ -9732,22 +9732,22 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D131">
-        <v>14</v>
+        <v>299</v>
       </c>
       <c r="E131">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F131">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>366</v>
@@ -9785,13 +9785,13 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="E132">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F132">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
@@ -9800,7 +9800,7 @@
         <v>14</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K132">
         <v>0.24</v>
@@ -9829,28 +9829,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06666666666666667</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="C133">
         <v>6</v>
       </c>
       <c r="D133">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="E133">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="F133">
-        <v>0.02000000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K133">
         <v>0.234375</v>
@@ -9879,28 +9879,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="E134">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K134">
         <v>0.234375</v>
@@ -9929,28 +9929,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.06315789473684211</v>
+        <v>0.0625</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K135">
         <v>0.231858407079646</v>
@@ -9985,16 +9985,16 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>15</v>
@@ -10082,22 +10082,22 @@
         <v>0.0625</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F138">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>369</v>
@@ -10129,25 +10129,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.0625</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>370</v>
@@ -10179,25 +10179,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>371</v>
@@ -10229,25 +10229,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.06008583690987124</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C141">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F141">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>372</v>
@@ -10282,22 +10282,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>373</v>
@@ -10335,16 +10335,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>16</v>
@@ -10379,25 +10379,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D144">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>375</v>
@@ -10429,7 +10429,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>376</v>
@@ -10482,10 +10482,10 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>377</v>
@@ -10535,16 +10535,16 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147">
         <v>17</v>
@@ -10579,13 +10579,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.05555555555555555</v>
+        <v>0.05369127516778523</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>379</v>
@@ -10629,25 +10629,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>380</v>
@@ -10679,13 +10679,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05369127516778523</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C150">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>381</v>
@@ -10732,10 +10732,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>382</v>
@@ -10779,25 +10779,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05263157894736842</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H152">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>383</v>
@@ -10829,7 +10829,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -10847,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K153">
         <v>0.2222222222222222</v>
@@ -10879,28 +10879,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05172413793103448</v>
+        <v>0.05</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K154">
         <v>0.2215288611544462</v>
@@ -10929,13 +10929,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -10947,10 +10947,10 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K155">
         <v>0.2201834862385321</v>
@@ -10979,25 +10979,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E156">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F156">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>384</v>
@@ -11029,28 +11029,28 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K157">
         <v>0.2142857142857143</v>
@@ -11079,28 +11079,28 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04761904761904762</v>
+        <v>0.04641350210970464</v>
       </c>
       <c r="C158">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="E158">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F158">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>20</v>
+        <v>226</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K158">
         <v>0.2121212121212121</v>
@@ -11129,25 +11129,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>385</v>
@@ -11179,25 +11179,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04641350210970464</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C160">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="E160">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>386</v>
@@ -11235,16 +11235,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
         <v>21</v>
@@ -11285,13 +11285,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11300,7 +11300,7 @@
         <v>21</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K162">
         <v>0.2096774193548387</v>
@@ -11329,25 +11329,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>388</v>
@@ -11379,25 +11379,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>389</v>
@@ -11435,22 +11435,22 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>22</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K165">
         <v>0.2083333333333333</v>
@@ -11479,25 +11479,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.89</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>0.11</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>390</v>
@@ -11529,25 +11529,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E167">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F167">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>391</v>
@@ -11582,22 +11582,22 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>392</v>
@@ -11629,25 +11629,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>393</v>
@@ -11679,25 +11679,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="E170">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="F170">
-        <v>0.23</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>394</v>
@@ -11729,25 +11729,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>395</v>
@@ -11779,25 +11779,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E172">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F172">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>396</v>
@@ -11832,25 +11832,25 @@
         <v>0.03846153846153846</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K173">
         <v>0.2</v>
@@ -11879,25 +11879,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
+        <v>8</v>
+      </c>
+      <c r="E174">
+        <v>0.88</v>
+      </c>
+      <c r="F174">
+        <v>0.12</v>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174">
         <v>26</v>
-      </c>
-      <c r="E174">
-        <v>0.96</v>
-      </c>
-      <c r="F174">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174">
-        <v>25</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>397</v>
@@ -11929,25 +11929,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>398</v>
@@ -11979,25 +11979,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.03703703703703703</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D176">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="E176">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F176">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>399</v>
@@ -12029,25 +12029,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>400</v>
@@ -12079,25 +12079,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03676470588235294</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C178">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="E178">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F178">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>401</v>
@@ -12129,25 +12129,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>402</v>
@@ -12179,25 +12179,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F180">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>403</v>
@@ -12279,25 +12279,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03448275862068965</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E182">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F182">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>405</v>
@@ -12329,25 +12329,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03448275862068965</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>406</v>
@@ -12379,25 +12379,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03409090909090909</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>407</v>
@@ -12429,25 +12429,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03409090909090909</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F185">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>74</v>
@@ -12485,22 +12485,22 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H186">
         <v>29</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K186">
         <v>0.1981132075471698</v>
@@ -12529,28 +12529,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03333333333333333</v>
+        <v>0.03041825095057034</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>161</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K187">
         <v>0.1939252336448598</v>
@@ -12579,25 +12579,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>408</v>
@@ -12629,28 +12629,28 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03041825095057034</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C189">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K189">
         <v>0.1912568306010929</v>
@@ -12685,16 +12685,16 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
         <v>32</v>
@@ -12729,25 +12729,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0303030303030303</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D191">
         <v>5</v>
       </c>
       <c r="E191">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>410</v>
@@ -12779,25 +12779,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0303030303030303</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>411</v>
@@ -12829,25 +12829,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03012048192771084</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>412</v>
@@ -12879,25 +12879,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0297029702970297</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>413</v>
@@ -12929,25 +12929,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E195">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F195">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>414</v>
@@ -12979,25 +12979,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>415</v>
@@ -13029,25 +13029,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E197">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="F197">
-        <v>0.14</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>416</v>
@@ -13079,25 +13079,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>417</v>
@@ -13129,25 +13129,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02702702702702703</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E199">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F199">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>418</v>
@@ -13179,25 +13179,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>419</v>
@@ -13229,25 +13229,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02586206896551724</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>420</v>
@@ -13279,25 +13279,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>421</v>
@@ -13329,7 +13329,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13347,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>422</v>
@@ -13385,16 +13385,16 @@
         <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H204">
         <v>39</v>
@@ -13429,25 +13429,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>424</v>
@@ -13479,25 +13479,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E206">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F206">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>425</v>
@@ -13529,25 +13529,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>426</v>
@@ -13629,28 +13629,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E209">
-        <v>0.96</v>
+        <v>0.83</v>
       </c>
       <c r="F209">
-        <v>0.04000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K209">
         <v>0.1774193548387097</v>
@@ -13679,25 +13679,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>428</v>
@@ -13729,25 +13729,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E211">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F211">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>429</v>
@@ -13779,25 +13779,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>430</v>
@@ -13829,25 +13829,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02222222222222222</v>
+        <v>0.02197112366603892</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D213">
-        <v>19</v>
+        <v>585</v>
       </c>
       <c r="E213">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F213">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>44</v>
+        <v>1558</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>431</v>
@@ -13879,7 +13879,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -13897,7 +13897,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>432</v>
@@ -13929,28 +13929,28 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02197112366603892</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="C215">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D215">
-        <v>585</v>
+        <v>27</v>
       </c>
       <c r="E215">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F215">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>1558</v>
+        <v>137</v>
       </c>
       <c r="J215" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K215">
         <v>0.176</v>
@@ -13979,28 +13979,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K216">
         <v>0.1752577319587629</v>
@@ -14029,25 +14029,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02142857142857143</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>433</v>
@@ -14079,28 +14079,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E218">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F218">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K218">
         <v>0.1739130434782609</v>
@@ -14129,25 +14129,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02127659574468085</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E219">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F219">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>434</v>
@@ -14179,25 +14179,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02040816326530612</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>435</v>
@@ -14229,25 +14229,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02032520325203252</v>
+        <v>0.02</v>
       </c>
       <c r="C221">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="E221">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F221">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>436</v>
@@ -14279,25 +14279,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>437</v>
@@ -14329,25 +14329,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>438</v>
@@ -14379,25 +14379,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E224">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F224">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>439</v>
@@ -14429,25 +14429,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0196078431372549</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>440</v>
@@ -14479,13 +14479,13 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01923076923076923</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E226">
         <v>0.92</v>
@@ -14497,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>441</v>
@@ -14529,25 +14529,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01923076923076923</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E227">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F227">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>442</v>
@@ -14579,25 +14579,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E228">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F228">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>443</v>
@@ -14629,25 +14629,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01904761904761905</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E229">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F229">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>444</v>
@@ -14679,25 +14679,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01886792452830189</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E230">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F230">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>445</v>
@@ -14729,25 +14729,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01886792452830189</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D231">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="E231">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F231">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>52</v>
+        <v>632</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>446</v>
@@ -14779,25 +14779,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01869158878504673</v>
+        <v>0.01852668725187473</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D232">
-        <v>10</v>
+        <v>882</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>105</v>
+        <v>2225</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>447</v>
@@ -14829,25 +14829,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01863354037267081</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C233">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>269</v>
+        <v>1</v>
       </c>
       <c r="E233">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H233">
-        <v>632</v>
+        <v>54</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>448</v>
@@ -14879,25 +14879,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01852668725187473</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C234">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>882</v>
+        <v>4</v>
       </c>
       <c r="E234">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F234">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>2225</v>
+        <v>55</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>449</v>
@@ -14929,25 +14929,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H235">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>450</v>
@@ -14979,25 +14979,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.01785714285714286</v>
+        <v>0.01771653543307087</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>55</v>
+        <v>499</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>451</v>
@@ -15029,25 +15029,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E237">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>452</v>
@@ -15079,25 +15079,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01771653543307087</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C238">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="E238">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F238">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>499</v>
+        <v>57</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>453</v>
@@ -15129,25 +15129,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>454</v>
@@ -15179,25 +15179,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>455</v>
@@ -15229,25 +15229,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>456</v>
@@ -15279,25 +15279,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>457</v>
@@ -15329,25 +15329,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01666666666666667</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D243">
-        <v>8</v>
+        <v>289</v>
       </c>
       <c r="E243">
-        <v>0.75</v>
+        <v>0.97</v>
       </c>
       <c r="F243">
-        <v>0.25</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>118</v>
+        <v>605</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>458</v>
@@ -15379,25 +15379,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F244">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>459</v>
@@ -15429,25 +15429,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01626016260162602</v>
+        <v>0.01569186875891583</v>
       </c>
       <c r="C245">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D245">
-        <v>289</v>
+        <v>177</v>
       </c>
       <c r="E245">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F245">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>605</v>
+        <v>690</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>460</v>
@@ -15479,25 +15479,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01612903225806452</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E246">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F246">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>461</v>
@@ -15529,25 +15529,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01569186875891583</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C247">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D247">
-        <v>177</v>
+        <v>113</v>
       </c>
       <c r="E247">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F247">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>690</v>
+        <v>195</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>462</v>
@@ -15579,25 +15579,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0155440414507772</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="E248">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>463</v>
@@ -15629,28 +15629,28 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01515151515151515</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C249">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="E249">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F249">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K249">
         <v>0.1636363636363636</v>
@@ -15679,28 +15679,28 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.01492537313432836</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K250">
         <v>0.162962962962963</v>
@@ -15732,22 +15732,22 @@
         <v>0.01333333333333333</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E251">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F251">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>464</v>
@@ -15779,25 +15779,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01333333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F252">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>465</v>
@@ -15829,25 +15829,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01333333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="E253">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="F253">
-        <v>0.05000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>466</v>
@@ -15885,13 +15885,13 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E254">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F254">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
@@ -15929,7 +15929,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01282051282051282</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15947,7 +15947,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>468</v>
@@ -15979,28 +15979,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01282051282051282</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E256">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F256">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K256">
         <v>0.1574803149606299</v>
@@ -16029,25 +16029,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01234567901234568</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E257">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F257">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>469</v>
@@ -16079,25 +16079,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E258">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F258">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>470</v>
@@ -16129,28 +16129,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01136363636363636</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E259">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F259">
-        <v>0.01000000000000001</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K259">
         <v>0.1538461538461539</v>
@@ -16179,25 +16179,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.01123595505617977</v>
+        <v>0.01072386058981233</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D260">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E260">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H260">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>471</v>
@@ -16229,25 +16229,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01098901098901099</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E261">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F261">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>472</v>
@@ -16279,25 +16279,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.01072386058981233</v>
+        <v>0.01</v>
       </c>
       <c r="C262">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>7</v>
@@ -16329,25 +16329,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0101010101010101</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E263">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F263">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>473</v>
@@ -16379,25 +16379,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E264">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="F264">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>474</v>
@@ -16429,25 +16429,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.009900990099009901</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="C265">
         <v>2</v>
       </c>
       <c r="D265">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E265">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F265">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>475</v>
@@ -16479,25 +16479,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.009803921568627451</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E266">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="F266">
-        <v>0.14</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>476</v>
@@ -16529,28 +16529,28 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.009569377990430622</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E267">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F267">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K267">
         <v>0.1490683229813665</v>
@@ -16579,25 +16579,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.009523809523809525</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E268">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F268">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>477</v>
@@ -16629,25 +16629,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.009259259259259259</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E269">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H269">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>478</v>
@@ -16679,28 +16679,28 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.008403361344537815</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F270">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K270">
         <v>0.1463414634146341</v>
@@ -16729,28 +16729,28 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.007936507936507936</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="C271">
         <v>2</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H271">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K271">
         <v>0.1463414634146341</v>
@@ -16779,25 +16779,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.007518796992481203</v>
+        <v>0.006445672191528545</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D272">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="E272">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F272">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>132</v>
+        <v>1079</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>479</v>
@@ -16829,25 +16829,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.006944444444444444</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="E273">
-        <v>0.99</v>
+        <v>0.8</v>
       </c>
       <c r="F273">
-        <v>0.01000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>286</v>
+        <v>166</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>480</v>
@@ -16879,25 +16879,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.006445672191528545</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C274">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E274">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="F274">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>1079</v>
+        <v>166</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>481</v>
@@ -16929,25 +16929,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.005988023952095809</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D275">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E275">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F275">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>166</v>
+        <v>513</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>482</v>
@@ -16979,25 +16979,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.005988023952095809</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="E276">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F276">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>483</v>
@@ -17029,25 +17029,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.005813953488372093</v>
+        <v>0.004694835680751174</v>
       </c>
       <c r="C277">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E277">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F277">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>513</v>
+        <v>212</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>484</v>
@@ -17079,25 +17079,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.005494505494505495</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="E278">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F278">
-        <v>0.2</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>181</v>
+        <v>434</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>485</v>
@@ -17129,25 +17129,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.004694835680751174</v>
+        <v>0.00419287211740042</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D279">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E279">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F279">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>212</v>
+        <v>950</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>486</v>
@@ -17179,25 +17179,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.004587155963302753</v>
+        <v>0.003802281368821293</v>
       </c>
       <c r="C280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D280">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E280">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F280">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>434</v>
+        <v>262</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>487</v>
@@ -17229,25 +17229,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.00419287211740042</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="C281">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D281">
         <v>18</v>
       </c>
       <c r="E281">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F281">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>950</v>
+        <v>263</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>488</v>
@@ -17279,25 +17279,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.003802281368821293</v>
+        <v>0.003584229390681004</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E282">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F282">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>489</v>
@@ -17329,25 +17329,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.003787878787878788</v>
+        <v>0.003448275862068965</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E283">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F283">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>490</v>
@@ -17379,25 +17379,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.003584229390681004</v>
+        <v>0.003075871496924129</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D284">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="E284">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F284">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>278</v>
+        <v>2917</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>491</v>
@@ -17429,25 +17429,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.003448275862068965</v>
+        <v>0.002958579881656805</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E285">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F285">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>492</v>
@@ -17479,25 +17479,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.003075871496924129</v>
+        <v>0.002207505518763797</v>
       </c>
       <c r="C286">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D286">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F286">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>2917</v>
+        <v>452</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>493</v>
@@ -17525,30 +17525,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0.002958579881656805</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>23</v>
-      </c>
-      <c r="E287">
-        <v>0.96</v>
-      </c>
-      <c r="F287">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>337</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>494</v>
       </c>
@@ -17575,30 +17551,6 @@
       </c>
     </row>
     <row r="288" spans="1:17">
-      <c r="A288" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288">
-        <v>0.002207505518763797</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>12</v>
-      </c>
-      <c r="E288">
-        <v>0.92</v>
-      </c>
-      <c r="F288">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>452</v>
-      </c>
       <c r="J288" s="1" t="s">
         <v>495</v>
       </c>
@@ -17912,7 +17864,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K300">
         <v>0.1372549019607843</v>
@@ -18068,7 +18020,7 @@
     </row>
     <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K306">
         <v>0.1346153846153846</v>
@@ -18172,7 +18124,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K310">
         <v>0.1333333333333333</v>
@@ -18250,7 +18202,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K313">
         <v>0.1333333333333333</v>
@@ -18328,7 +18280,7 @@
     </row>
     <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K316">
         <v>0.1323529411764706</v>
@@ -18458,7 +18410,7 @@
     </row>
     <row r="321" spans="10:17">
       <c r="J321" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K321">
         <v>0.1294117647058824</v>
@@ -18614,7 +18566,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K327">
         <v>0.1265822784810127</v>
@@ -18770,7 +18722,7 @@
     </row>
     <row r="333" spans="10:17">
       <c r="J333" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K333">
         <v>0.125</v>
@@ -19602,7 +19554,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K365">
         <v>0.1237458193979933</v>
@@ -19706,7 +19658,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K369">
         <v>0.1212121212121212</v>
@@ -19836,7 +19788,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K374">
         <v>0.12</v>
@@ -19914,7 +19866,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K377">
         <v>0.1191489361702128</v>
@@ -20070,7 +20022,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K383">
         <v>0.1176470588235294</v>
@@ -20486,7 +20438,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K399">
         <v>0.1111111111111111</v>
@@ -20668,7 +20620,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K406">
         <v>0.1111111111111111</v>
@@ -20694,7 +20646,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K407">
         <v>0.1111111111111111</v>
@@ -20954,7 +20906,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K417">
         <v>0.1063829787234043</v>
@@ -21136,7 +21088,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K424">
         <v>0.1031390134529148</v>
@@ -21968,7 +21920,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K456">
         <v>0.09574468085106383</v>
@@ -22124,7 +22076,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K462">
         <v>0.09345794392523364</v>
@@ -22254,7 +22206,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K467">
         <v>0.09090909090909091</v>
@@ -22904,7 +22856,7 @@
     </row>
     <row r="492" spans="10:17">
       <c r="J492" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K492">
         <v>0.08852459016393442</v>
@@ -23060,7 +23012,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K498">
         <v>0.08695652173913043</v>
@@ -23086,7 +23038,7 @@
     </row>
     <row r="499" spans="10:17">
       <c r="J499" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K499">
         <v>0.08615288220551379</v>
@@ -23502,7 +23454,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K515">
         <v>0.08333333333333333</v>
@@ -23788,7 +23740,7 @@
     </row>
     <row r="526" spans="10:17">
       <c r="J526" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K526">
         <v>0.08</v>
@@ -24750,7 +24702,7 @@
     </row>
     <row r="563" spans="10:17">
       <c r="J563" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K563">
         <v>0.07079646017699115</v>
@@ -24776,7 +24728,7 @@
     </row>
     <row r="564" spans="10:17">
       <c r="J564" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K564">
         <v>0.0707070707070707</v>
@@ -24958,7 +24910,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K571">
         <v>0.06818181818181818</v>
@@ -24984,7 +24936,7 @@
     </row>
     <row r="572" spans="10:17">
       <c r="J572" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K572">
         <v>0.06818181818181818</v>
@@ -25192,7 +25144,7 @@
     </row>
     <row r="580" spans="10:17">
       <c r="J580" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K580">
         <v>0.06666666666666667</v>
@@ -25270,7 +25222,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K583">
         <v>0.06666666666666667</v>
@@ -25504,7 +25456,7 @@
     </row>
     <row r="592" spans="10:17">
       <c r="J592" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K592">
         <v>0.06499133448873484</v>
@@ -25894,7 +25846,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K607">
         <v>0.06194690265486726</v>
@@ -25946,7 +25898,7 @@
     </row>
     <row r="609" spans="10:17">
       <c r="J609" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K609">
         <v>0.06153846153846154</v>
@@ -25972,7 +25924,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K610">
         <v>0.06128133704735376</v>
@@ -25998,7 +25950,7 @@
     </row>
     <row r="611" spans="10:17">
       <c r="J611" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K611">
         <v>0.06071428571428571</v>
@@ -26388,7 +26340,7 @@
     </row>
     <row r="626" spans="10:17">
       <c r="J626" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K626">
         <v>0.05714285714285714</v>
@@ -26440,7 +26392,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K628">
         <v>0.05607476635514019</v>
@@ -26726,7 +26678,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K639">
         <v>0.05454545454545454</v>
@@ -26830,7 +26782,7 @@
     </row>
     <row r="643" spans="10:17">
       <c r="J643" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K643">
         <v>0.05350553505535055</v>
@@ -27168,7 +27120,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K656">
         <v>0.05172413793103448</v>
@@ -27506,7 +27458,7 @@
     </row>
     <row r="669" spans="10:17">
       <c r="J669" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K669">
         <v>0.04838709677419355</v>
@@ -27532,7 +27484,7 @@
     </row>
     <row r="670" spans="10:17">
       <c r="J670" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K670">
         <v>0.04838709677419355</v>
@@ -27740,7 +27692,7 @@
     </row>
     <row r="678" spans="10:17">
       <c r="J678" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K678">
         <v>0.04545454545454546</v>
@@ -27948,7 +27900,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K686">
         <v>0.04347826086956522</v>
@@ -28676,7 +28628,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K714">
         <v>0.03846153846153846</v>
@@ -28884,7 +28836,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K722">
         <v>0.0364963503649635</v>
@@ -29196,7 +29148,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K734">
         <v>0.03333333333333333</v>
@@ -29456,7 +29408,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K744">
         <v>0.0303030303030303</v>
@@ -29820,7 +29772,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K758">
         <v>0.02631578947368421</v>
@@ -29950,7 +29902,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K763">
         <v>0.02564102564102564</v>
@@ -30054,7 +30006,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K767">
         <v>0.025</v>
@@ -30236,7 +30188,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K774">
         <v>0.02375809935205184</v>
@@ -30262,7 +30214,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K775">
         <v>0.02352941176470588</v>
@@ -30470,7 +30422,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K783">
         <v>0.02162162162162162</v>
@@ -30600,7 +30552,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K788">
         <v>0.02040816326530612</v>
@@ -30626,7 +30578,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K789">
         <v>0.02</v>
@@ -31042,7 +30994,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K805">
         <v>0.01452282157676349</v>
@@ -31120,7 +31072,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K808">
         <v>0.01333333333333333</v>
@@ -31172,7 +31124,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K810">
         <v>0.01282051282051282</v>
@@ -31250,7 +31202,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K813">
         <v>0.01234567901234568</v>
@@ -31302,7 +31254,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K815">
         <v>0.01027397260273973</v>
